--- a/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,52%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>68,75; 82,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>45,79; 62,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>61,36; 72,36</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,58%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>74,68; 81,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>54,7; 65,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>68,06; 74,7</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>78,52; 85,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>56,25; 68,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>71,69; 77,93</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>73,36; 82,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>49,36; 65,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>68,1; 75,7</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,65%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>67,92; 82,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>50,11; 76,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>65,95; 78,62</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,17%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>30,87; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>27,23; 100,0</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,94%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,21%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>77,02; 80,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>56,16; 62,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>70,31; 73,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>78,53%</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,87; 100,0</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,23; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>66,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>66,38%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>78,94%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>77,02; 80,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>56,16; 62,54</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>70,31; 73,81</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A01_2007-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,75; 82,02</t>
+          <t>69,4; 82,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,79; 62,81</t>
+          <t>45,84; 63,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,36; 72,36</t>
+          <t>60,65; 71,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,68; 81,95</t>
+          <t>74,4; 81,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,7; 65,59</t>
+          <t>54,33; 65,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,06; 74,7</t>
+          <t>68,05; 74,81</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,52; 85,19</t>
+          <t>78,47; 85,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,25; 68,16</t>
+          <t>56,09; 67,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,69; 77,93</t>
+          <t>71,78; 78,07</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,36; 82,08</t>
+          <t>73,67; 82,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,36; 65,07</t>
+          <t>49,41; 65,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,1; 75,7</t>
+          <t>67,9; 76,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,92; 82,12</t>
+          <t>68,18; 81,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,11; 76,46</t>
+          <t>50,63; 77,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,95; 78,62</t>
+          <t>66,39; 78,26</t>
         </is>
       </c>
     </row>
@@ -839,7 +840,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>23,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,02; 80,92</t>
+          <t>76,91; 80,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,16; 62,54</t>
+          <t>56,29; 62,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,31; 73,81</t>
+          <t>70,4; 73,92</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han informado sobre los riesgos laborales de su trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>129815</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72521</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>202336</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>117786; 140219</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61620; 84821</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>184479; 218636</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>414048</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184662</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>598710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>392932; 432470</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>167485; 200897</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>569217; 625764</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>429175</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>176487</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>605662</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>411178; 446616</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>159051; 192515</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>579653; 630414</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>301076</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87674</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>388750</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>284568; 316906</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75879; 100578</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>366587; 410518</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>110209</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35150</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>145359</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99423; 118838</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27465; 42119</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>132839; 156569</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1106; 2568</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1843</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1058; 4411</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1388531</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>557390</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1945922</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1352831; 1423537</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>526843; 585099</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1897179; 1992072</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>